--- a/document/字典一览.xlsx
+++ b/document/字典一览.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>序号</t>
   </si>
@@ -95,6 +95,34 @@
   </si>
   <si>
     <t>会员级别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已使用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已过期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已领用</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -363,6 +391,87 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -371,87 +480,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,13 +880,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="52">
+      <c r="B3" s="43">
         <v>1</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="49">
         <v>1001</v>
       </c>
       <c r="E3" s="32" t="s">
@@ -870,9 +898,9 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="53"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="59"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="32" t="s">
         <v>8</v>
       </c>
@@ -885,7 +913,7 @@
       <c r="B5" s="40">
         <v>2</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="55" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="37">
@@ -901,7 +929,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="41"/>
-      <c r="C6" s="65"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="38"/>
       <c r="E6" s="13" t="s">
         <v>13</v>
@@ -912,13 +940,13 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="52">
+      <c r="B7" s="43">
         <v>3</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="49">
         <v>1003</v>
       </c>
       <c r="E7" s="32" t="s">
@@ -930,17 +958,17 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="53"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="59"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="33"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="54"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="60"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -949,42 +977,58 @@
       <c r="B10" s="40">
         <v>4</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="10"/>
+      <c r="C10" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="37">
+        <v>1004</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="41"/>
-      <c r="C11" s="65"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="38"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="42"/>
-      <c r="C12" s="72"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="39"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="10"/>
+      <c r="E12" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="52">
+      <c r="B13" s="43">
         <v>5</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="58"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="12"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="53"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="59"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="12"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -993,7 +1037,7 @@
       <c r="B15" s="40">
         <v>6</v>
       </c>
-      <c r="C15" s="64"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="37"/>
       <c r="E15" s="26"/>
       <c r="F15" s="10"/>
@@ -1001,42 +1045,42 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="41"/>
-      <c r="C16" s="65"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="38"/>
       <c r="E16" s="26"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="52">
+      <c r="B17" s="43">
         <v>7</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B18" s="53"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="59"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="53"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="59"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="25"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="54"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="60"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -1046,7 +1090,7 @@
       <c r="B21" s="40">
         <v>8</v>
       </c>
-      <c r="C21" s="64"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="37"/>
       <c r="E21" s="13"/>
       <c r="F21" s="14"/>
@@ -1055,7 +1099,7 @@
     <row r="22" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22"/>
       <c r="B22" s="41"/>
-      <c r="C22" s="65"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="38"/>
       <c r="E22" s="13"/>
       <c r="F22" s="14"/>
@@ -1064,7 +1108,7 @@
     <row r="23" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23"/>
       <c r="B23" s="41"/>
-      <c r="C23" s="72"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="38"/>
       <c r="E23" s="13"/>
       <c r="F23" s="14"/>
@@ -1082,7 +1126,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B25" s="40"/>
-      <c r="C25" s="69"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="40"/>
       <c r="E25" s="26"/>
       <c r="F25" s="10"/>
@@ -1090,7 +1134,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B26" s="41"/>
-      <c r="C26" s="70"/>
+      <c r="C26" s="53"/>
       <c r="D26" s="41"/>
       <c r="E26" s="26"/>
       <c r="F26" s="10"/>
@@ -1098,7 +1142,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B27" s="41"/>
-      <c r="C27" s="70"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="41"/>
       <c r="E27" s="9"/>
       <c r="F27" s="10"/>
@@ -1106,64 +1150,64 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B28" s="42"/>
-      <c r="C28" s="71"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="42"/>
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="52"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="58"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="12"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="53"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="59"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="12"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="53"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="59"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="12"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B32" s="53"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="59"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="50"/>
       <c r="E32" s="12"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B33" s="53"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="50"/>
       <c r="E33" s="12"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="53"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="50"/>
       <c r="E34" s="12"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B35" s="54"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="60"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="51"/>
       <c r="E35" s="12"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -1193,17 +1237,17 @@
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="52"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="58"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="49"/>
       <c r="E39" s="12"/>
       <c r="F39" s="17"/>
       <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="54"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="60"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="51"/>
       <c r="E40" s="12"/>
       <c r="F40" s="17"/>
       <c r="G40" s="6"/>
@@ -1225,18 +1269,18 @@
       <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="52"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="58"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="49"/>
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="60"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="51"/>
       <c r="E44" s="5"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -1275,17 +1319,17 @@
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B49" s="52"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="58"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B50" s="54"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="60"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="51"/>
       <c r="E50" s="5"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -1309,114 +1353,114 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="58"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="49"/>
       <c r="E53" s="5"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B54" s="53"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="59"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="50"/>
       <c r="E54" s="5"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B55" s="53"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="59"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="50"/>
       <c r="E55" s="5"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B56" s="53"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="59"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="50"/>
       <c r="E56" s="5"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B57" s="53"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="59"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="50"/>
       <c r="E57" s="5"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B58" s="53"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="59"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="5"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B59" s="53"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="59"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="50"/>
       <c r="E59" s="5"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B60" s="53"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="59"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="50"/>
       <c r="E60" s="5"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B61" s="53"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="59"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="50"/>
       <c r="E61" s="5"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B62" s="53"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="59"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="50"/>
       <c r="E62" s="5"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
     </row>
     <row r="63" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="60"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="51"/>
       <c r="E63" s="5"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="49"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="61"/>
       <c r="D64" s="37"/>
       <c r="E64" s="9"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B65" s="47"/>
-      <c r="C65" s="50"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="62"/>
       <c r="D65" s="38"/>
       <c r="E65" s="9"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B66" s="48"/>
-      <c r="C66" s="51"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="63"/>
       <c r="D66" s="39"/>
       <c r="E66" s="9"/>
       <c r="F66" s="10"/>
@@ -1424,57 +1468,57 @@
     </row>
     <row r="67" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="58"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="49"/>
       <c r="E67" s="12"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
     </row>
     <row r="68" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="53"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="59"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="50"/>
       <c r="E68" s="5"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
     </row>
     <row r="69" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="53"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="59"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="50"/>
       <c r="E69" s="5"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
     <row r="70" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="54"/>
-      <c r="C70" s="63"/>
-      <c r="D70" s="60"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="51"/>
       <c r="E70" s="5"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="49"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="61"/>
       <c r="D71" s="37"/>
       <c r="E71" s="11"/>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B72" s="47"/>
-      <c r="C72" s="50"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="62"/>
       <c r="D72" s="38"/>
       <c r="E72" s="9"/>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B73" s="48"/>
-      <c r="C73" s="51"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="63"/>
       <c r="D73" s="39"/>
       <c r="E73" s="9"/>
       <c r="F73" s="10"/>
@@ -1482,97 +1526,97 @@
     </row>
     <row r="74" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74"/>
-      <c r="B74" s="52"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="58"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="49"/>
       <c r="E74" s="5"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
     </row>
     <row r="75" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="53"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="59"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="50"/>
       <c r="E75" s="5"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
     </row>
     <row r="76" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="53"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="59"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="50"/>
       <c r="E76" s="5"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
     </row>
     <row r="77" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="54"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="60"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="51"/>
       <c r="E77" s="5"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
     </row>
     <row r="78" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="46"/>
-      <c r="C78" s="49"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="61"/>
       <c r="D78" s="37"/>
       <c r="E78" s="11"/>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
     </row>
     <row r="79" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="47"/>
-      <c r="C79" s="50"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="62"/>
       <c r="D79" s="38"/>
       <c r="E79" s="9"/>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="48"/>
-      <c r="C80" s="51"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="63"/>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
     </row>
     <row r="81" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="43"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="45"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="72"/>
       <c r="E81" s="5"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
     </row>
     <row r="82" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="43"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="45"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="71"/>
+      <c r="D82" s="72"/>
       <c r="E82" s="5"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
-      <c r="B83" s="46"/>
-      <c r="C83" s="49"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="61"/>
       <c r="D83" s="37"/>
       <c r="E83" s="11"/>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B84" s="47"/>
-      <c r="C84" s="50"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="62"/>
       <c r="D84" s="38"/>
       <c r="E84" s="9"/>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B85" s="48"/>
-      <c r="C85" s="51"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="63"/>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="10"/>
@@ -1580,25 +1624,25 @@
     </row>
     <row r="86" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86"/>
-      <c r="B86" s="52"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="58"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="49"/>
       <c r="E86" s="18"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
     </row>
     <row r="87" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="53"/>
-      <c r="C87" s="56"/>
-      <c r="D87" s="59"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="50"/>
       <c r="E87" s="18"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
     </row>
     <row r="88" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="54"/>
-      <c r="C88" s="57"/>
-      <c r="D88" s="60"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="51"/>
       <c r="E88" s="21"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -1696,12 +1740,65 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="C89:C95"/>
+    <mergeCell ref="D89:D95"/>
+    <mergeCell ref="B89:B95"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="D53:D63"/>
+    <mergeCell ref="C53:C63"/>
+    <mergeCell ref="B53:B63"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="D25:D28"/>
@@ -1718,65 +1815,12 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="D53:D63"/>
-    <mergeCell ref="C53:C63"/>
-    <mergeCell ref="B53:B63"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C89:C95"/>
-    <mergeCell ref="D89:D95"/>
-    <mergeCell ref="B89:B95"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="D29:D35"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/document/字典一览.xlsx
+++ b/document/字典一览.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18900" windowHeight="8970"/>
+    <workbookView windowWidth="15060" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="字典一览" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>序号</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>实物券</t>
+  </si>
+  <si>
+    <t>充值状态</t>
+  </si>
+  <si>
+    <t>充值成功</t>
+  </si>
+  <si>
+    <t>充值方式</t>
+  </si>
+  <si>
+    <t>现金充值</t>
   </si>
 </sst>
 </file>
@@ -773,7 +785,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1004,10 +1016,18 @@
       <c r="B17" s="18">
         <v>6</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
+      <c r="C17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="20">
+        <v>1006</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="G17" s="22"/>
     </row>
     <row r="18" spans="2:7">
@@ -1022,10 +1042,18 @@
       <c r="B19" s="9">
         <v>7</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="14"/>
+      <c r="C19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1007</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="2:7">
